--- a/report/reliability/comb/Mestrado-Presencial.xlsx
+++ b/report/reliability/comb/Mestrado-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7668900180055224</v>
+        <v>0.7467220113567153</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7947117105494589</v>
+        <v>0.7687797394177776</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.906093829221963</v>
+        <v>0.8876885722422074</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24391343047376327</v>
+        <v>0.20366951617794435</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.8711984627887133</v>
+        <v>3.3248805164476414</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.021876862656196476</v>
+        <v>0.02216454416074046</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.799</v>
+        <v>2.1658461538461538</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7666885655448763</v>
+        <v>0.6618055944188356</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2101606242636546</v>
+        <v>0.15578284133430623</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7474083066326305</v>
+        <v>0.7511305135605053</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7673975628602943</v>
+        <v>0.77335313950595</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8910120662727302</v>
+        <v>0.8992479541661049</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23072517731971942</v>
+        <v>0.22139352310523858</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.29918109327195</v>
+        <v>3.4121502403350195</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02372317116372503</v>
+        <v>0.02236261373410754</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04958938325350305</v>
+        <v>0.07003085387113601</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20392893064592912</v>
+        <v>0.20492761550395544</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.747460525324088</v>
+        <v>0.7334287770708007</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7710631111538185</v>
+        <v>0.7528031523621312</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8915888607005253</v>
+        <v>0.8744286965184233</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2344106536237063</v>
+        <v>0.20241185502050568</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.3680160285216485</v>
+        <v>3.0453590308924605</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02366733933167998</v>
+        <v>0.023336967350711887</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05028014917505783</v>
+        <v>0.06681529480748709</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21181426959041424</v>
+        <v>0.10450264004952742</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7484066814863912</v>
+        <v>0.7354051799061357</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7698174846322119</v>
+        <v>0.7552569259294252</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8850506803415764</v>
+        <v>0.8776591428705708</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23314907628428394</v>
+        <v>0.20455616767196527</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.3443786266832176</v>
+        <v>3.085917461801747</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.023574867521221902</v>
+        <v>0.023133854278366922</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.047353200071801334</v>
+        <v>0.06851032690792482</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.20850697893689493</v>
+        <v>0.10752991856052524</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7467770598536461</v>
+        <v>0.728397666808507</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7708396123172514</v>
+        <v>0.7406732365188022</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8838715707936761</v>
+        <v>0.8675935647067881</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.23418358987357915</v>
+        <v>0.1922531052962505</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.3637559270688935</v>
+        <v>2.856138821061192</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.023625570859785068</v>
+        <v>0.024161566932339253</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04694306882183756</v>
+        <v>0.054402612159185515</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.21181426959041424</v>
+        <v>0.11024161775526937</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7290792513187191</v>
+        <v>0.696982824501697</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7727575771369048</v>
+        <v>0.7349627397838471</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.869800967208877</v>
+        <v>0.862373115269119</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.23614223680900762</v>
+        <v>0.18771029486489874</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.40058677161025</v>
+        <v>2.773054396896661</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.026097346959291712</v>
+        <v>0.027194515608134483</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.050018815960423374</v>
+        <v>0.05325225257880177</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.20322746253729645</v>
+        <v>0.11024161775526937</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7278424492828237</v>
+        <v>0.6940632350346592</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7714915734335308</v>
+        <v>0.7322249167782464</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8689025480531959</v>
+        <v>0.8607293992513083</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.23484681397584473</v>
+        <v>0.1855836034210212</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.376206230228961</v>
+        <v>2.7344774127914904</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02641507146214695</v>
+        <v>0.02775246939212253</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05049802037061385</v>
+        <v>0.053871603602358716</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20322746253729645</v>
+        <v>0.11024161775526937</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7709755687053416</v>
+        <v>0.7453338836010773</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8033041180463562</v>
+        <v>0.7761936201626551</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8862664095063354</v>
+        <v>0.8825475257235836</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27075000595116633</v>
+        <v>0.22421222639949412</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.083990524192439</v>
+        <v>3.4681478728478057</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.021048021879720727</v>
+        <v>0.022578444946460014</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.044687496972814864</v>
+        <v>0.051699001953019214</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2331408524133271</v>
+        <v>0.20492761550395544</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7753562239523787</v>
+        <v>0.7410446049563284</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8013980890390996</v>
+        <v>0.760547173807164</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.884620194466464</v>
+        <v>0.8697773935589428</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.26838344284542653</v>
+        <v>0.2092875981917602</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.035198277608085</v>
+        <v>3.1761879193469245</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.020452121358589745</v>
+        <v>0.021584201466618217</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.045638968774091085</v>
+        <v>0.055972618177977634</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2331408524133271</v>
+        <v>0.20492761550395544</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7578473326802412</v>
+        <v>0.7442569015908587</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.78867251562456</v>
+        <v>0.7584289049157512</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9056151716818719</v>
+        <v>0.8740902922399325</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2533256956759634</v>
+        <v>0.2073750111125404</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.7319921635153737</v>
+        <v>3.139568103755322</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.022918533546352166</v>
+        <v>0.021043171245665585</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.055697446385518795</v>
+        <v>0.05801959890663104</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.21181426959041424</v>
+        <v>0.20492761550395544</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7511859981667172</v>
+        <v>0.7335064044380574</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7816338750399926</v>
+        <v>0.7586628356787183</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9029775186059681</v>
+        <v>0.8849484411298053</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2455141466882445</v>
+        <v>0.20758502951445873</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.5794648789190373</v>
+        <v>3.143580632565746</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.02338393131434855</v>
+        <v>0.023229228103887344</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.057748706164304914</v>
+        <v>0.06757628753132823</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20850697893689493</v>
+        <v>0.12415700978210611</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7504657264586266</v>
+        <v>0.729651595687535</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7775157965999363</v>
+        <v>0.7558531555259127</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8907693536049367</v>
+        <v>0.8821302582158341</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24110197907442135</v>
+        <v>0.20508194594745957</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.4947011280699005</v>
+        <v>3.0958956571979623</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.023479238446357832</v>
+        <v>0.023468481609920946</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05460962673833434</v>
+        <v>0.06835228431483274</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20592630036198176</v>
+        <v>0.11024161775526937</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7522036944161419</v>
+        <v>0.7278452917874544</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.780630236221699</v>
+        <v>0.7495988016965254</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8926428364994481</v>
+        <v>0.8701850718979092</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24442834756379578</v>
+        <v>0.1996580465417339</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.558513364725223</v>
+        <v>2.993591112084244</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.023368307012710476</v>
+        <v>0.023658292031707332</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.054823679134360453</v>
+        <v>0.06595723980907532</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.21181426959041424</v>
+        <v>0.10450264004952742</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7286691560084845</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7506961963032354</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8712125810419953</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20059530322594943</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.0111702475920845</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.02363222217792389</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06683439569179754</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.11024161775526937</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>250.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5734565286897716</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6631119588742355</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6354932205857621</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5006554663392081</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.712</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.9167429687119126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5562417240584249</v>
+        <v>0.17828790913032172</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6326216365239792</v>
+        <v>0.3398855878774076</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6039182871882038</v>
+        <v>0.2185802810106619</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4699579918857868</v>
+        <v>0.1711565819580454</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.156</v>
+        <v>0.996</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0469232029003295</v>
+        <v>0.06324555320336758</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5522964759353831</v>
+        <v>0.45889770176377354</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6430587948655361</v>
+        <v>0.5271144970567908</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6316072898917586</v>
+        <v>0.4813137344111596</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4717980363221235</v>
+        <v>0.3686355032619935</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.664</v>
+        <v>3.712</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.977201972357361</v>
+        <v>0.9167429687119126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5559151136237069</v>
+        <v>0.43870245457653456</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6345001581489713</v>
+        <v>0.5059637047828892</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6249517089307045</v>
+        <v>0.45081226714405387</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4478178249971403</v>
+        <v>0.3326819729936761</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.928</v>
+        <v>4.156</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.284295002956281</v>
+        <v>1.0469232029003295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7005575705619191</v>
+        <v>0.675857405564749</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6182960717553205</v>
+        <v>0.6273170514902685</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6367565681940532</v>
+        <v>0.646602238270127</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5659558137561218</v>
+        <v>0.6424017594411034</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.64</v>
+        <v>0.46</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.938409069024261</v>
+        <v>0.49939722702618783</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7164668324671358</v>
+        <v>0.7342510147377772</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.62901323732773</v>
+        <v>0.6721258342523491</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6481383331952499</v>
+        <v>0.7022158209955635</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.575795623668171</v>
+        <v>0.5998393456001487</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.768</v>
+        <v>1.64</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.0715553010870473</v>
+        <v>1.938409069024261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4114383863433485</v>
+        <v>0.7542099814497815</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.33198245855255426</v>
+        <v>0.693102816750456</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.31153722562533187</v>
+        <v>0.7254086971563871</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.24558963069941547</v>
+        <v>0.6159672560424159</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.092</v>
+        <v>1.768</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.660894422028233</v>
+        <v>2.0715553010870473</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4368975063354349</v>
+        <v>0.29038473530507497</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.35156127713786745</v>
+        <v>0.3120828288823607</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.33322827305197006</v>
+        <v>0.2885814506687001</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24844607313468245</v>
+        <v>0.24061808203003274</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.2</v>
+        <v>0.704</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.896943218522154</v>
+        <v>0.45740669380119103</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.487513134002789</v>
+        <v>0.4781832193203294</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4761355593192296</v>
+        <v>0.4592944357215599</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3951468923349094</v>
+        <v>0.4610434396043582</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3442305956018246</v>
+        <v>0.30879159907421394</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.204</v>
+        <v>2.092</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5400881422645183</v>
+        <v>1.660894422028233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5157980021797253</v>
+        <v>0.5074617558154949</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5407613029260219</v>
+        <v>0.47815956343080096</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46491152275720526</v>
+        <v>0.4721346354617453</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.40415403966988955</v>
+        <v>0.31598123899537683</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.672</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2628520026997982</v>
+        <v>1.896943218522154</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5218699383242537</v>
+        <v>0.506791113778363</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5772636167960901</v>
+        <v>0.4760880112298436</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5369265557487044</v>
+        <v>0.3997282839909442</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.42963081919195</v>
+        <v>0.3554045955388995</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.904</v>
+        <v>2.204</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.067399346759144</v>
+        <v>1.5400881422645183</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>250.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5032333537244488</v>
+        <v>0.5052156991233443</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5497442301195178</v>
+        <v>0.5007776014040088</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5055941306469247</v>
+        <v>0.43242331342937274</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4112136100239279</v>
+        <v>0.3835676830986797</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.672</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2628520026997982</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>250.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5159263522483043</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5542771550101281</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5187339735203372</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4159850740507676</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.904</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.067399346759144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>250.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5081559296202022</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5450323644140947</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5067051190047475</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4097683530401578</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.648</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.0432879751999384</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.004</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.036</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.012</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.312</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.464</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.172</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.004</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.012</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.028</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.284</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.124</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.548</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.032</v>
+        <v>0.996</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.288</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.492</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.152</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.34</v>
+        <v>0.312</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.032</v>
+        <v>0.464</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.532</v>
+        <v>0.172</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.54</v>
+        <v>0.004</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.048</v>
+        <v>0.012</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.008</v>
+        <v>0.028</v>
       </c>
       <c r="E47" t="n" s="112">
+        <v>0.284</v>
+      </c>
+      <c r="F47" t="n" s="113">
         <v>0.124</v>
       </c>
-      <c r="F47" t="n" s="113">
-        <v>0.196</v>
-      </c>
       <c r="G47" t="n" s="114">
-        <v>0.084</v>
+        <v>0.548</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.54</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.016</v>
+        <v>0.46</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.048</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.104</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.116</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.176</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.296</v>
+        <v>0.54</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.128</v>
+        <v>0.048</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.04</v>
+        <v>0.008</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.3</v>
+        <v>0.124</v>
       </c>
       <c r="F49" t="n" s="113">
         <v>0.196</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04</v>
+        <v>0.084</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.296</v>
+        <v>0.54</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.14</v>
+        <v>0.016</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.144</v>
+        <v>0.048</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.08</v>
+        <v>0.104</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.168</v>
+        <v>0.116</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.172</v>
+        <v>0.176</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.26</v>
+        <v>0.296</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.096</v>
+        <v>0.704</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.048</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.372</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.224</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.124</v>
+        <v>0.296</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.064</v>
+        <v>0.128</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.076</v>
+        <v>0.04</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.488</v>
+        <v>0.3</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.248</v>
+        <v>0.196</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.052</v>
+        <v>0.296</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.024</v>
+        <v>0.14</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.236</v>
+        <v>0.144</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.344</v>
+        <v>0.08</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.344</v>
+        <v>0.168</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.172</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.064</v>
+        <v>0.26</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.02</v>
+        <v>0.096</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.336</v>
+        <v>0.048</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.364</v>
+        <v>0.372</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.216</v>
+        <v>0.224</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.124</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.064</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.076</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.488</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.248</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.052</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.024</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.236</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.344</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.344</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.064</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.336</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.364</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.216</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8819855692943325</v>
+        <v>0.8673012368320702</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8870215596296827</v>
+        <v>0.9769055177315207</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8867808121428742</v>
+        <v>0.9676865385442746</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6624827545020594</v>
+        <v>0.9337753989442025</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>7.851246279575384</v>
+        <v>42.30038614309432</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01177118089350461</v>
+        <v>0.0030262170100401786</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.865</v>
+        <v>1.2893333333333332</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9156301185829488</v>
+        <v>1.4784853013324601</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6693915140474838</v>
+        <v>0.9265610165494884</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8645907083917975</v>
+        <v>0.97653345535065</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8680260683288845</v>
+        <v>0.9776353720059927</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.837487005845095</v>
+        <v>0.9562492140638921</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6867578113812235</v>
+        <v>0.9562492140638921</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>6.577253987492324</v>
+        <v>43.713464506002886</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.01392814995891014</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.012838583485579917</v>
-      </c>
+        <v>0.002894513795655303</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7043354862452059</v>
+        <v>0.956249214063892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8550460775900096</v>
+        <v>0.5937298663436159</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8663984239205258</v>
+        <v>0.9618807902684325</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8314344253233986</v>
+        <v>0.9265610165494885</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6837091767365263</v>
+        <v>0.9265610165494884</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.484941640247866</v>
+        <v>25.233492431819162</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015206368442449943</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.011494145736438012</v>
-      </c>
+        <v>0.00971643675802931</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.685038250591972</v>
+        <v>0.9265610165494884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.835188792194564</v>
+        <v>0.6147865324540092</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8447722181229294</v>
+        <v>0.9575275706767497</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7905257909363111</v>
+        <v>0.9185159662192268</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6446401095073068</v>
+        <v>0.9185159662192266</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.442145780269721</v>
+        <v>22.544685715742155</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.017233014528729135</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.004189939569267558</v>
-      </c>
+        <v>0.01038812892939478</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6537447775029956</v>
+        <v>0.9185159662192267</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8359335991401043</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8391045196273645</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.782725524985078</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6348239203831811</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.215214981079581</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.018119705461417196</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.003829575959713622</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6537447775029956</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>250.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9467525734656236</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9700136255676866</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.941314411707201</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9329211107466501</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.46</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.49939722702618783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>250.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.821874666219719</v>
+        <v>0.9870544581769302</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8431448844851447</v>
+        <v>0.9801356561074336</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7691840409123294</v>
+        <v>0.9692883824871587</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7082845557067484</v>
+        <v>0.9600185468037041</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.712</v>
+        <v>1.64</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.9167429687119126</v>
+        <v>1.938409069024261</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>250.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8473961698863506</v>
+        <v>0.9892736050552762</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8457906200984008</v>
+        <v>0.9828785725508183</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7777006794741895</v>
+        <v>0.9746477871461082</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7266191202333583</v>
+        <v>0.9630356795185763</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.156</v>
+        <v>1.768</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0469232029003295</v>
+        <v>2.0715553010870473</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>250.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8770877247971128</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8796964286297203</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8474654121162626</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.785800535483595</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.664</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.977201972357361</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>250.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9069739299195972</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8882153376427542</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8609297616671983</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7972742896768966</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.928</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.284295002956281</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.54</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.46</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.54</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.048</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.008</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.124</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.196</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.084</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.004</v>
+        <v>0.54</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.036</v>
+        <v>0.016</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.012</v>
+        <v>0.048</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.312</v>
+        <v>0.104</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.464</v>
+        <v>0.116</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.172</v>
+        <v>0.176</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.004</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.012</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.028</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.284</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.124</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.548</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.016</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.032</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.288</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.492</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.152</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.016</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.04</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.04</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.34</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.032</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.532</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.9260151359508006</v>
+        <v>0.8253170017243484</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9303942780188619</v>
+        <v>0.929186597619287</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.8698478877764162</v>
+        <v>0.9057273113349048</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.8698478877764164</v>
+        <v>0.8139144891692216</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>13.366634976805237</v>
+        <v>13.121620574361248</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.009034517370637443</v>
+        <v>0.00764604937105566</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.146</v>
+        <v>1.6653333333333333</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.720326157550775</v>
+        <v>1.273594105498301</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.8698478877764164</v>
+        <v>0.8183696417001052</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.8698478877764164</v>
+        <v>0.9260151359508006</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.8698478877764164</v>
+        <v>0.9303942780188619</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.7566353478690928</v>
+        <v>0.8698478877764162</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.8698478877764164</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8698478877764164</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>13.366634976805237</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.009034517370637443</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.8698478877764164</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.7566353478690928</v>
+        <v>0.511267994874758</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.8698478877764164</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.7566353478690928</v>
-      </c>
+        <v>0.8594408804436633</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.7535259380311432</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7535259380311432</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>6.1144441083326235</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.01972229700976256</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.8698478877764164</v>
+        <v>0.7535259380311431</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5905343907472467</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9001136214911301</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8183696417001052</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8183696417001052</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>9.0113750736413</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.016783004130627575</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.8183696417001052</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>250.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9623019621480714</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9669146518117347</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.9017991005887923</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.8698478877764164</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.092</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.660894422028233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>250.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9712311554050227</v>
+        <v>0.8495716102362754</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9669146518117347</v>
+        <v>0.9159972206589997</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.9017991005887923</v>
+        <v>0.8415598395855225</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.8698478877764164</v>
+        <v>0.8104920915565876</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.704</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.45740669380119103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>250.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9645339411509894</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.957426034296698</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9379267580646472</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8950736600827961</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.092</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.660894422028233</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>250.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9648119746149448</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9343315304583223</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8926454023818805</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8719696824534681</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.2</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.896943218522154</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.296</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.704</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.296</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.128</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.04</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.196</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.296</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.14</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.144</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.08</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.168</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.172</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8417078711746626</v>
+        <v>0.6067470568515707</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8418350996998294</v>
+        <v>0.655068526520793</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7268698088516105</v>
+        <v>0.615058122300495</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7268698088516103</v>
+        <v>0.38764594945397873</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>5.322515286907314</v>
+        <v>1.899126571180468</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.02001147341624868</v>
+        <v>0.019948991668000692</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.776</v>
+        <v>2.9546666666666668</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>0.9806480932174007</v>
+        <v>0.6017140473135836</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7268698088516105</v>
+        <v>0.2571171450176604</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7268698088516105</v>
+        <v>0.7864251161526419</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7268698088516105</v>
+        <v>0.7906235428783526</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5283397190199768</v>
+        <v>0.6537447775029956</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7268698088516105</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7268698088516105</v>
-      </c>
+        <v>0.6537447775029956</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.776086164353241</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.026606431911470413</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7268698088516105</v>
+        <v>0.6537447775029956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5283397190199768</v>
+        <v>0.05890356596178936</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7268698088516105</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5283397190199768</v>
-      </c>
+        <v>0.4026527794980297</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.2520759258412799</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.25207592584128014</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>0.6740682231009083</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.013873989606508664</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7268698088516105</v>
+        <v>0.2520759258412802</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.06820896345160876</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.40905836983720123</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.25711714501766036</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.25711714501766036</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>0.6922145080970343</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.015651202659243316</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.2571171450176604</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>250.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9308812664285467</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.929211980349912</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7922150995378677</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7268698088516105</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.904</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.067399346759144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>250.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9275235157897782</v>
+        <v>0.3118092534720085</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.929211980349912</v>
+        <v>0.6539571456165204</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.7922150995378677</v>
+        <v>0.3246710631494006</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7268698088516105</v>
+        <v>0.2796716069096597</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.648</v>
+        <v>0.996</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.0432879751999384</v>
+        <v>0.06324555320336758</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>250.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8960098064025542</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8280065901758323</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7444329938931509</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6581482340360538</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.712</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.9167429687119126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>250.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9208038379738708</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8258221504466353</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.74079182549678</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6580276132902664</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.156</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.0469232029003295</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.052</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.024</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.236</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.344</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.344</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.004</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.996</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.064</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.02</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.336</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.364</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.216</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.004</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.036</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.012</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.312</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.464</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.172</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.004</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.012</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.028</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.284</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.124</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.548</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.97653345535065</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9776353720059927</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>43.713464506002886</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002894513795655303</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.704</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.9829554835646706</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.956249214063892</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6840808017288009</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6929147121020749</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.2564243205698586</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.038896016503911016</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.438</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2276745248459884</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5301220345127066</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9144125593978112</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9562492140638921</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.28102937147589147</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5301220345127067</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9144125593978112</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9144125593978112</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9562492140638921</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.28102937147589147</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5301220345127067</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.28102937147589147</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5301220345127067</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>250.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.988255215526329</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9890018235736202</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9671250626112694</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9562492140638921</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.64</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.938409069024261</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8998939745456435</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8746776647750606</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6368482574320974</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5301220345127066</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>2.204</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5400881422645183</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>250.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9897240463562341</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9890018235736202</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9671250626112694</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.956249214063892</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.768</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.0715553010870473</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8468395409063351</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8746776647750607</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6368482574320974</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5301220345127065</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.672</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2628520026997982</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.54</v>
-      </c>
-      <c r="C23" t="n" s="569">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.26</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.096</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.048</v>
       </c>
-      <c r="D23" t="n" s="570">
-        <v>0.008</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="E23" t="n" s="572">
+        <v>0.372</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.224</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
         <v>0.124</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.196</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.084</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.54</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.016</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.048</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.104</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.116</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.176</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="C24" t="n" s="570">
+        <v>0.064</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.076</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.488</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.248</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6840808017288009</v>
+        <v>0.8417078711746626</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6929147121020749</v>
+        <v>0.8418350996998294</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516103</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.2564243205698586</v>
+        <v>5.322515286907314</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.038896016503911016</v>
+        <v>0.02001147341624868</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.438</v>
+        <v>2.776</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2276745248459884</v>
+        <v>0.9806480932174007</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5301220345127066</v>
+        <v>0.7268698088516105</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.28102937147589147</v>
+        <v>0.5283397190199768</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.28102937147589147</v>
+        <v>0.5283397190199768</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.28102937147589147</v>
+        <v>0.5283397190199768</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5301220345127067</v>
+        <v>0.7268698088516105</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>250.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8998939745456435</v>
+        <v>0.9308812664285467</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8746776647750606</v>
+        <v>0.929211980349912</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6368482574320974</v>
+        <v>0.7922150995378677</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5301220345127066</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>2.204</v>
+        <v>2.904</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5400881422645183</v>
+        <v>1.067399346759144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>250.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8468395409063351</v>
+        <v>0.9275235157897782</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8746776647750607</v>
+        <v>0.929211980349912</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6368482574320974</v>
+        <v>0.7922150995378677</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5301220345127065</v>
+        <v>0.7268698088516105</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.672</v>
+        <v>2.648</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2628520026997982</v>
+        <v>1.0432879751999384</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.26</v>
+        <v>0.052</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.096</v>
+        <v>0.024</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.048</v>
+        <v>0.236</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.372</v>
+        <v>0.344</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.224</v>
+        <v>0.344</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.124</v>
+        <v>0.064</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.064</v>
+        <v>0.02</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.076</v>
+        <v>0.336</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.488</v>
+        <v>0.364</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.248</v>
+        <v>0.216</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,28 +7521,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8071285202578804</v>
+        <v>0.7856552004988611</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8250946456389483</v>
+        <v>0.8019029085919611</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9044327115632281</v>
+        <v>0.8756903619181804</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3205311368960144</v>
+        <v>0.28815640222663996</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.717377856459046</v>
+        <v>4.048029695399248</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.01779174190458995</v>
+        <v>0.017393547515517752</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.9296</v>
+        <v>2.316</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8286073864039669</v>
+        <v>0.7490180988799932</v>
       </c>
       <c r="I6" t="n" s="727">
         <v>0.2510979614230158</v>
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7874441531969943</v>
+        <v>0.7655583746283449</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7986214375418319</v>
+        <v>0.7700623733227696</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8867058755022954</v>
+        <v>0.8462930876906956</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3058646957105949</v>
+        <v>0.2711963720681554</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.9657718666440847</v>
+        <v>3.3490054866214956</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.0195134376548279</v>
+        <v>0.019708946683422043</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.040735079425527364</v>
+        <v>0.03461638448190468</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.24759047955698354</v>
+        <v>0.25356823143642726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7911627060860661</v>
+        <v>0.7277510516423522</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8060023449748843</v>
+        <v>0.7625995301245304</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8883517447157785</v>
+        <v>0.8394617922599419</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.31583396158171806</v>
+        <v>0.2630375763539228</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.1547014827088296</v>
+        <v>3.2122915785489328</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.01910124726446974</v>
+        <v>0.023271805635477524</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03842094237261762</v>
+        <v>0.03382820848657344</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.2569296182011783</v>
+        <v>0.24066003757337057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7892692488053356</v>
+        <v>0.7320504312591732</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8018916511386134</v>
+        <v>0.7625781876821256</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8793420364235394</v>
+        <v>0.8386180084064113</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.3102255226321251</v>
+        <v>0.263014725440035</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.047742842476995</v>
+        <v>3.211912925090219</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.0192381053634609</v>
+        <v>0.023082634376285306</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03627696216292013</v>
+        <v>0.033548216646338655</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2569296182011783</v>
+        <v>0.23440046371802742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7893975197005428</v>
+        <v>0.7946735335992483</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8038609982866131</v>
+        <v>0.8171397052132947</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8784192289664212</v>
+        <v>0.8913883576228627</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.31289449194808877</v>
+        <v>0.33178186625991873</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.098425051950019</v>
+        <v>4.468655736153303</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.019014052596451336</v>
+        <v>0.01763205240672842</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03472498002739357</v>
+        <v>0.04907448983399721</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2569296182011783</v>
+        <v>0.25873997488264283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7930418338081171</v>
+        <v>0.7713762760868355</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8115059229228463</v>
+        <v>0.7840092197439578</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8865610494766705</v>
+        <v>0.8563548505028442</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.32357306814568915</v>
+        <v>0.2874011795697463</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.3052064845023414</v>
+        <v>3.629827249175027</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.019054961718287113</v>
+        <v>0.018280451055057562</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04476931887639145</v>
+        <v>0.05584324841646322</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.24923836028496982</v>
+        <v>0.24066003757337057</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7962668538759538</v>
+        <v>0.7790550057347629</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8161832136853592</v>
+        <v>0.792952086299948</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8891394276421811</v>
+        <v>0.8621576725748257</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3303670857021449</v>
+        <v>0.29850815709997336</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.44019955983939</v>
+        <v>3.829799934370211</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.018867659362539514</v>
+        <v>0.017619309544948596</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04322778259087335</v>
+        <v>0.054021936766822494</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2503846477946732</v>
+        <v>0.25789919770608194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7738252201492088</v>
+        <v>0.7725735819641828</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8069167290940934</v>
+        <v>0.7914712715936988</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8625147115834557</v>
+        <v>0.8688741827959309</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31710121330649554</v>
+        <v>0.2966278479876316</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.1791125937954545</v>
+        <v>3.7955023158803423</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.021624059160284304</v>
+        <v>0.01784118525726169</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03829364820229721</v>
+        <v>0.05573943564062088</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.24995167391331247</v>
+        <v>0.24066003757337057</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7778425291492337</v>
+        <v>0.7708406893251665</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8070086344047043</v>
+        <v>0.790225746426961</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8623188939092347</v>
+        <v>0.8677333114642389</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.31722898862911886</v>
+        <v>0.29505918465686093</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.1815789629521944</v>
+        <v>3.767029237226296</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02135730473255058</v>
+        <v>0.01779501180826591</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03830262423599766</v>
+        <v>0.05649272623347446</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2503846477946732</v>
+        <v>0.25356823143642726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8021649498724939</v>
+        <v>0.7661809224015246</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8227985911125569</v>
+        <v>0.7818725484670744</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9036492785421522</v>
+        <v>0.8502401251009705</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.34033535537677373</v>
+        <v>0.28483313742971106</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.643295988889075</v>
+        <v>3.584475695160513</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.01836219648534567</v>
+        <v>0.018329757376317517</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.04442655025438889</v>
+        <v>0.05363272452378229</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2503846477946732</v>
+        <v>0.24066003757337057</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7962019046401636</v>
+        <v>0.7693609975589221</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8172105371100523</v>
+        <v>0.7862294549471828</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9013500268464544</v>
+        <v>0.8531192213220584</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.331886985927395</v>
+        <v>0.2901039754004449</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.470774869567133</v>
+        <v>3.6779129451764514</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.018711951073685038</v>
+        <v>0.018217019385012106</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04751436327533313</v>
+        <v>0.052885286691704114</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2569296182011783</v>
+        <v>0.24873676706668696</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6382984387228234</v>
+        <v>0.7618611383772982</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7079918731014957</v>
+        <v>0.7013038648510371</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6779899178261052</v>
+        <v>0.7274162589216514</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5653873475608532</v>
+        <v>0.7316331636225003</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.712</v>
+        <v>0.46</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.9167429687119126</v>
+        <v>0.49939722702618783</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5849209134278264</v>
+        <v>0.8252288326794319</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6504104423761582</v>
+        <v>0.750301522356829</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6183290250841049</v>
+        <v>0.7883496611790802</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4921639989322469</v>
+        <v>0.7081292589378602</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.156</v>
+        <v>1.64</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.0469232029003295</v>
+        <v>1.938409069024261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6094966729053668</v>
+        <v>0.8259936716931076</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6828041956402476</v>
+        <v>0.7504387535477525</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6709917598658326</v>
+        <v>0.7897187871925982</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5269665183837983</v>
+        <v>0.6979938442959761</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.664</v>
+        <v>1.768</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.977201972357361</v>
+        <v>2.0715553010870473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6046979295627004</v>
+        <v>0.1624328446556589</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6673885096948692</v>
+        <v>0.33745760638317535</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6572386756137639</v>
+        <v>0.19796163902730787</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.49167055712614055</v>
+        <v>0.15419517683643266</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.928</v>
+        <v>0.996</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.284295002956281</v>
+        <v>0.06324555320336758</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5653671206539026</v>
+        <v>0.5342921744377733</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6057101771560167</v>
+        <v>0.6039858738483761</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5624275626472156</v>
+        <v>0.5543773572710486</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.46777805450162746</v>
+        <v>0.438044011104208</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.904</v>
+        <v>3.712</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.067399346759144</v>
+        <v>0.9167429687119126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5314860829682844</v>
+        <v>0.4669539474627854</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5664686466029043</v>
+        <v>0.5372829068895105</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5186436409292963</v>
+        <v>0.47596595291301963</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4318527518491587</v>
+        <v>0.3470060749672256</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.648</v>
+        <v>4.156</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.0432879751999384</v>
+        <v>1.0469232029003295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7557755617791028</v>
+        <v>0.5890091652603767</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6430909297515419</v>
+        <v>0.5485751055323598</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6622548354738697</v>
+        <v>0.4669405194924883</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.6232194419273986</v>
+        <v>0.4286324854462236</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.64</v>
+        <v>2.204</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.938409069024261</v>
+        <v>1.5400881422645183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.756923796942386</v>
+        <v>0.5583689580940498</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6423529129323342</v>
+        <v>0.5579957150579685</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6615174875937773</v>
+        <v>0.47903264678131996</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.6129148656527863</v>
+        <v>0.4252354711803292</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.768</v>
+        <v>2.672</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.0715553010870473</v>
+        <v>1.2628520026997982</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.542209789887597</v>
+        <v>0.5811051242604774</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5088929698036999</v>
+        <v>0.6194082540188204</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4224961383374386</v>
+        <v>0.5831584520285614</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.39043689528564746</v>
+        <v>0.47442120047006225</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>2.204</v>
+        <v>2.904</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5400881422645183</v>
+        <v>1.067399346759144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>250.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.546628576301781</v>
+        <v>0.5535439403393934</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.557689862822729</v>
+        <v>0.5877542302260663</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.47560816802649497</v>
+        <v>0.5466352311140161</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.42594131065221363</v>
+        <v>0.4453605127566967</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.672</v>
+        <v>2.648</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2628520026997982</v>
+        <v>1.0432879751999384</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.004</v>
+        <v>0.54</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.036</v>
+        <v>0.46</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.012</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.312</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.464</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.172</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.004</v>
+        <v>0.54</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.012</v>
+        <v>0.048</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.028</v>
+        <v>0.008</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.284</v>
+        <v>0.124</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.124</v>
+        <v>0.196</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.548</v>
+        <v>0.084</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.54</v>
+      </c>
+      <c r="C41" t="n" s="798">
         <v>0.016</v>
       </c>
-      <c r="C41" t="n" s="798">
-        <v>0.032</v>
-      </c>
       <c r="D41" t="n" s="799">
-        <v>0.02</v>
+        <v>0.048</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.288</v>
+        <v>0.104</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.492</v>
+        <v>0.116</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.152</v>
+        <v>0.176</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.04</v>
+        <v>0.996</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.032</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.532</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.052</v>
+        <v>0.004</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.236</v>
+        <v>0.012</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.344</v>
+        <v>0.312</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.344</v>
+        <v>0.464</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.172</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.064</v>
+        <v>0.004</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.336</v>
+        <v>0.028</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.364</v>
+        <v>0.284</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.216</v>
+        <v>0.124</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.548</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.54</v>
+        <v>0.26</v>
       </c>
       <c r="C45" t="n" s="798">
+        <v>0.096</v>
+      </c>
+      <c r="D45" t="n" s="799">
         <v>0.048</v>
       </c>
-      <c r="D45" t="n" s="799">
-        <v>0.008</v>
-      </c>
       <c r="E45" t="n" s="800">
-        <v>0.124</v>
+        <v>0.372</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.196</v>
+        <v>0.224</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.084</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.54</v>
+        <v>0.124</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.016</v>
+        <v>0.064</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.048</v>
+        <v>0.076</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.104</v>
+        <v>0.488</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.116</v>
+        <v>0.248</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.176</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.26</v>
+        <v>0.052</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.096</v>
+        <v>0.024</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.048</v>
+        <v>0.236</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.372</v>
+        <v>0.344</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.224</v>
+        <v>0.344</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.124</v>
+        <v>0.064</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.064</v>
+        <v>0.02</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.076</v>
+        <v>0.336</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.488</v>
+        <v>0.364</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.248</v>
+        <v>0.216</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
